--- a/artfynd/A 43994-2022.xlsx
+++ b/artfynd/A 43994-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY26"/>
+  <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>97363145</v>
+        <v>112241842</v>
       </c>
       <c r="B14" t="n">
-        <v>89673</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2088,34 +2088,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Medaljongen, Jmt</t>
+          <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>555055.0686530685</v>
+        <v>554730</v>
       </c>
       <c r="R14" t="n">
-        <v>7006886.228202119</v>
+        <v>7006958</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2142,22 +2146,17 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2172,26 +2171,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Johan Staaf</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Via Johan Staaf</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>LstZ inventering av skogliga värdetrakter 2021</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>97363141</v>
+        <v>112241841</v>
       </c>
       <c r="B15" t="n">
-        <v>78569</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2204,34 +2199,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Medaljongen, Jmt</t>
+          <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554952.5797936033</v>
+        <v>554673</v>
       </c>
       <c r="R15" t="n">
-        <v>7006930.091477146</v>
+        <v>7006971</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2258,22 +2257,17 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2288,26 +2282,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Johan Staaf</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Via Johan Staaf</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>LstZ inventering av skogliga värdetrakter 2021</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>97363143</v>
+        <v>112241852</v>
       </c>
       <c r="B16" t="n">
-        <v>89673</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2320,34 +2310,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Medaljongen, Jmt</t>
+          <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554915.3196266467</v>
+        <v>554629</v>
       </c>
       <c r="R16" t="n">
-        <v>7006940.746943521</v>
+        <v>7007076</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2374,22 +2364,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2404,26 +2384,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Johan Staaf</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Via Johan Staaf</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>LstZ inventering av skogliga värdetrakter 2021</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>97363147</v>
+        <v>112241865</v>
       </c>
       <c r="B17" t="n">
-        <v>78569</v>
+        <v>89965</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2432,38 +2408,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Medaljongen, Jmt</t>
+          <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>555063.4846501268</v>
+        <v>554630</v>
       </c>
       <c r="R17" t="n">
-        <v>7006843.47212659</v>
+        <v>7007075</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2490,22 +2466,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2520,26 +2486,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Johan Staaf</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Via Johan Staaf</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t>LstZ inventering av skogliga värdetrakter 2021</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>97363152</v>
+        <v>112241843</v>
       </c>
       <c r="B18" t="n">
-        <v>78603</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2548,38 +2510,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6464</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Medaljongen, Jmt</t>
+          <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554830.8473358717</v>
+        <v>554754</v>
       </c>
       <c r="R18" t="n">
-        <v>7006962.341655875</v>
+        <v>7006933</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2606,22 +2572,17 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2636,26 +2597,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Johan Staaf</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Via Johan Staaf</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t>LstZ inventering av skogliga värdetrakter 2021</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>97363139</v>
+        <v>97363145</v>
       </c>
       <c r="B19" t="n">
-        <v>78602</v>
+        <v>89673</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2664,25 +2621,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6463</v>
+        <v>658</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2692,10 +2649,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554903.5745931627</v>
+        <v>555055.0686530685</v>
       </c>
       <c r="R19" t="n">
-        <v>7006913.453445203</v>
+        <v>7006886.228202119</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2768,10 +2725,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>97363137</v>
+        <v>97363141</v>
       </c>
       <c r="B20" t="n">
-        <v>89952</v>
+        <v>78569</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2780,25 +2737,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2808,10 +2765,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554829.0391439048</v>
+        <v>554952.5797936033</v>
       </c>
       <c r="R20" t="n">
-        <v>7006962.310965091</v>
+        <v>7006930.091477146</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2864,11 +2821,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Sälg</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2889,10 +2841,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>97363144</v>
+        <v>97363143</v>
       </c>
       <c r="B21" t="n">
-        <v>93044</v>
+        <v>89673</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2901,25 +2853,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2809</v>
+        <v>658</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2929,10 +2881,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554967.4909941135</v>
+        <v>554915.3196266467</v>
       </c>
       <c r="R21" t="n">
-        <v>7006904.15433484</v>
+        <v>7006940.746943521</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3005,7 +2957,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>97363146</v>
+        <v>97363147</v>
       </c>
       <c r="B22" t="n">
         <v>78569</v>
@@ -3045,10 +2997,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554829.9738886536</v>
+        <v>555063.4846501268</v>
       </c>
       <c r="R22" t="n">
-        <v>7006960.520593969</v>
+        <v>7006843.47212659</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3121,10 +3073,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>97363151</v>
+        <v>97363152</v>
       </c>
       <c r="B23" t="n">
-        <v>89673</v>
+        <v>78603</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3133,25 +3085,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>658</v>
+        <v>6464</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3161,10 +3113,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554874.5740638567</v>
+        <v>554830.8473358717</v>
       </c>
       <c r="R23" t="n">
-        <v>7006917.024785019</v>
+        <v>7006962.341655875</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3237,10 +3189,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>97363148</v>
+        <v>97363139</v>
       </c>
       <c r="B24" t="n">
-        <v>78569</v>
+        <v>78602</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3249,25 +3201,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3277,10 +3229,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554905.7811581952</v>
+        <v>554903.5745931627</v>
       </c>
       <c r="R24" t="n">
-        <v>7006916.651910062</v>
+        <v>7006913.453445203</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3333,11 +3285,6 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Rönn</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3358,10 +3305,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>97363153</v>
+        <v>97363137</v>
       </c>
       <c r="B25" t="n">
-        <v>89673</v>
+        <v>89952</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3370,25 +3317,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>760</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3398,10 +3345,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>555063.9559312864</v>
+        <v>554829.0391439048</v>
       </c>
       <c r="R25" t="n">
-        <v>7006895.411079187</v>
+        <v>7006962.310965091</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3454,6 +3401,11 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Sälg</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3474,10 +3426,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>97363138</v>
+        <v>97363144</v>
       </c>
       <c r="B26" t="n">
-        <v>73693</v>
+        <v>93044</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3486,25 +3438,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6440</v>
+        <v>2809</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3514,10 +3466,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>555062.5651313405</v>
+        <v>554967.4909941135</v>
       </c>
       <c r="R26" t="n">
-        <v>7006844.359607334</v>
+        <v>7006904.15433484</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3587,6 +3539,1110 @@
           <t>LstZ inventering av skogliga värdetrakter 2021</t>
         </is>
       </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>97363146</v>
+      </c>
+      <c r="B27" t="n">
+        <v>78569</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Medaljongen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>554829.9738886536</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7006960.520593969</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Via Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>LstZ inventering av skogliga värdetrakter 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>97363151</v>
+      </c>
+      <c r="B28" t="n">
+        <v>89673</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>658</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Medaljongen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>554874.5740638567</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7006917.024785019</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Via Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>LstZ inventering av skogliga värdetrakter 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>97363148</v>
+      </c>
+      <c r="B29" t="n">
+        <v>78569</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Medaljongen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>554905.7811581952</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7006916.651910062</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Rönn</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Via Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>LstZ inventering av skogliga värdetrakter 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>97363153</v>
+      </c>
+      <c r="B30" t="n">
+        <v>89673</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>658</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Medaljongen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>555063.9559312864</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7006895.411079187</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Via Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>LstZ inventering av skogliga värdetrakter 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>97363138</v>
+      </c>
+      <c r="B31" t="n">
+        <v>73693</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Medaljongen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>555062.5651313405</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7006844.359607334</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Via Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>LstZ inventering av skogliga värdetrakter 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112241840</v>
+      </c>
+      <c r="B32" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>sotberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>555033</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7006894</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112241866</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89965</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>760</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Doftticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Haploporus odorus</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>sotberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>554828</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7006965</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112241839</v>
+      </c>
+      <c r="B34" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>sotberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>554840</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7006980</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112241853</v>
+      </c>
+      <c r="B35" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>sotberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>554828</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7006965</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112241844</v>
+      </c>
+      <c r="B36" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>sotberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>554782</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7006984</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 43994-2022.xlsx
+++ b/artfynd/A 43994-2022.xlsx
@@ -2075,7 +2075,7 @@
         <v>112241842</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112241841</v>
+        <v>112241852</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>78699</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2199,38 +2199,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554673</v>
+        <v>554629</v>
       </c>
       <c r="R15" t="n">
-        <v>7006971</v>
+        <v>7007076</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2263,11 +2259,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-21</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2294,10 +2285,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112241852</v>
+        <v>112241841</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>56430</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2310,34 +2301,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554629</v>
+        <v>554673</v>
       </c>
       <c r="R16" t="n">
-        <v>7007076</v>
+        <v>7006971</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2370,6 +2365,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2396,10 +2396,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112241865</v>
+        <v>112241843</v>
       </c>
       <c r="B17" t="n">
-        <v>89965</v>
+        <v>56430</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2408,38 +2408,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>760</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554630</v>
+        <v>554754</v>
       </c>
       <c r="R17" t="n">
-        <v>7007075</v>
+        <v>7006933</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,6 +2476,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2498,10 +2507,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112241843</v>
+        <v>112241865</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>90099</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2510,42 +2519,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>760</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554754</v>
+        <v>554630</v>
       </c>
       <c r="R18" t="n">
-        <v>7006933</v>
+        <v>7007075</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2578,11 +2583,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-21</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -4127,10 +4127,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112241840</v>
+        <v>112241853</v>
       </c>
       <c r="B32" t="n">
-        <v>89405</v>
+        <v>78699</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4143,21 +4143,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4167,10 +4167,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>555033</v>
+        <v>554828</v>
       </c>
       <c r="R32" t="n">
-        <v>7006894</v>
+        <v>7006965</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4229,10 +4229,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112241866</v>
+        <v>112241839</v>
       </c>
       <c r="B33" t="n">
-        <v>89965</v>
+        <v>89539</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4241,25 +4241,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>760</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>554828</v>
+        <v>554840</v>
       </c>
       <c r="R33" t="n">
-        <v>7006965</v>
+        <v>7006980</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4331,10 +4331,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112241839</v>
+        <v>112241866</v>
       </c>
       <c r="B34" t="n">
-        <v>89405</v>
+        <v>90099</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4343,25 +4343,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>760</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4371,10 +4371,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>554840</v>
+        <v>554828</v>
       </c>
       <c r="R34" t="n">
-        <v>7006980</v>
+        <v>7006965</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4433,10 +4433,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112241853</v>
+        <v>112241840</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>89539</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4449,21 +4449,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4473,10 +4473,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>554828</v>
+        <v>555033</v>
       </c>
       <c r="R35" t="n">
-        <v>7006965</v>
+        <v>7006894</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
         <v>112241844</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>

--- a/artfynd/A 43994-2022.xlsx
+++ b/artfynd/A 43994-2022.xlsx
@@ -2186,7 +2186,7 @@
         <v>112241852</v>
       </c>
       <c r="B15" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112241841</v>
+        <v>112241843</v>
       </c>
       <c r="B16" t="n">
         <v>56430</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554673</v>
+        <v>554754</v>
       </c>
       <c r="R16" t="n">
-        <v>7006971</v>
+        <v>7006933</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112241843</v>
+        <v>112241841</v>
       </c>
       <c r="B17" t="n">
         <v>56430</v>
@@ -2440,10 +2440,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554754</v>
+        <v>554673</v>
       </c>
       <c r="R17" t="n">
-        <v>7006933</v>
+        <v>7006971</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2510,7 +2510,7 @@
         <v>112241865</v>
       </c>
       <c r="B18" t="n">
-        <v>90099</v>
+        <v>90113</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>112241853</v>
       </c>
       <c r="B32" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4229,10 +4229,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112241839</v>
+        <v>112241840</v>
       </c>
       <c r="B33" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>554840</v>
+        <v>555033</v>
       </c>
       <c r="R33" t="n">
-        <v>7006980</v>
+        <v>7006894</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4331,10 +4331,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112241866</v>
+        <v>112241839</v>
       </c>
       <c r="B34" t="n">
-        <v>90099</v>
+        <v>89553</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4343,25 +4343,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>760</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4371,10 +4371,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>554828</v>
+        <v>554840</v>
       </c>
       <c r="R34" t="n">
-        <v>7006965</v>
+        <v>7006980</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4433,10 +4433,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112241840</v>
+        <v>112241844</v>
       </c>
       <c r="B35" t="n">
-        <v>89539</v>
+        <v>56430</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4449,34 +4449,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>555033</v>
+        <v>554782</v>
       </c>
       <c r="R35" t="n">
-        <v>7006894</v>
+        <v>7006984</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4509,6 +4513,11 @@
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4535,10 +4544,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112241844</v>
+        <v>112241866</v>
       </c>
       <c r="B36" t="n">
-        <v>56430</v>
+        <v>90113</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4547,42 +4556,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>760</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>554782</v>
+        <v>554828</v>
       </c>
       <c r="R36" t="n">
-        <v>7006984</v>
+        <v>7006965</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4615,11 +4620,6 @@
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-21</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD36" t="b">

--- a/artfynd/A 43994-2022.xlsx
+++ b/artfynd/A 43994-2022.xlsx
@@ -2072,7 +2072,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112241842</v>
+        <v>112241841</v>
       </c>
       <c r="B14" t="n">
         <v>56430</v>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554730</v>
+        <v>554673</v>
       </c>
       <c r="R14" t="n">
-        <v>7006958</v>
+        <v>7006971</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112241852</v>
+        <v>112241865</v>
       </c>
       <c r="B15" t="n">
-        <v>78713</v>
+        <v>90113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554629</v>
+        <v>554630</v>
       </c>
       <c r="R15" t="n">
-        <v>7007076</v>
+        <v>7007075</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112241841</v>
+        <v>112241842</v>
       </c>
       <c r="B17" t="n">
         <v>56430</v>
@@ -2440,10 +2440,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554673</v>
+        <v>554730</v>
       </c>
       <c r="R17" t="n">
-        <v>7006971</v>
+        <v>7006958</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112241865</v>
+        <v>112241852</v>
       </c>
       <c r="B18" t="n">
-        <v>90113</v>
+        <v>78713</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2519,25 +2519,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2547,10 +2547,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554630</v>
+        <v>554629</v>
       </c>
       <c r="R18" t="n">
-        <v>7007075</v>
+        <v>7007076</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -4229,10 +4229,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112241840</v>
+        <v>112241866</v>
       </c>
       <c r="B33" t="n">
-        <v>89553</v>
+        <v>90113</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4241,25 +4241,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>760</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>555033</v>
+        <v>554828</v>
       </c>
       <c r="R33" t="n">
-        <v>7006894</v>
+        <v>7006965</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4331,10 +4331,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112241839</v>
+        <v>112241844</v>
       </c>
       <c r="B34" t="n">
-        <v>89553</v>
+        <v>56430</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4347,34 +4347,38 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>554840</v>
+        <v>554782</v>
       </c>
       <c r="R34" t="n">
-        <v>7006980</v>
+        <v>7006984</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4407,6 +4411,11 @@
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4433,10 +4442,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112241844</v>
+        <v>112241839</v>
       </c>
       <c r="B35" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4449,38 +4458,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>sotberget, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>554782</v>
+        <v>554840</v>
       </c>
       <c r="R35" t="n">
-        <v>7006984</v>
+        <v>7006980</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4513,11 +4518,6 @@
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-21</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4544,10 +4544,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112241866</v>
+        <v>112241840</v>
       </c>
       <c r="B36" t="n">
-        <v>90113</v>
+        <v>89553</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4556,25 +4556,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>760</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>554828</v>
+        <v>555033</v>
       </c>
       <c r="R36" t="n">
-        <v>7006965</v>
+        <v>7006894</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
